--- a/RespostasPoliticasBrasil.xlsx
+++ b/RespostasPoliticasBrasil.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="10">
-        <v>43956</v>
+        <v>43895</v>
       </c>
       <c r="C6" s="9">
         <v>43903</v>
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9">
-        <v>44017</v>
+        <v>43895</v>
       </c>
       <c r="C7" s="9">
         <v>43913</v>

--- a/RespostasPoliticasBrasil.xlsx
+++ b/RespostasPoliticasBrasil.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
   <si>
     <t>Suspensão de eventos</t>
   </si>
@@ -79,6 +79,39 @@
   </si>
   <si>
     <t>Medidas</t>
+  </si>
+  <si>
+    <t>Siglas</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
 </sst>
 </file>
@@ -116,7 +149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,33 +182,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,574 +428,671 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="6"/>
-    <col min="2" max="2" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="168.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="10"/>
+    <col min="2" max="2" width="14.42578125" style="6"/>
+    <col min="3" max="3" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="168.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
+      <c r="C2" s="7">
         <v>43887</v>
       </c>
-      <c r="C2" s="9">
+      <c r="D2" s="7">
         <v>43903</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="C3" s="7">
         <v>43887</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="7">
         <v>43906</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="C4" s="7">
         <v>43887</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="7">
         <v>43910</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="C5" s="7">
         <v>43895</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="7">
         <v>43903</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
+      <c r="C6" s="8">
         <v>43895</v>
       </c>
-      <c r="C6" s="9">
+      <c r="D6" s="7">
         <v>43903</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9">
+      <c r="C7" s="7">
         <v>43895</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D7" s="7">
         <v>43913</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10">
+      <c r="C8" s="8">
         <v>43905</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="7">
         <v>43909</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="C9" s="8">
         <v>43905</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="7">
         <v>43909</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="C10" s="8">
         <v>43905</v>
       </c>
-      <c r="C10" s="9">
+      <c r="D10" s="7">
         <v>43924</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9">
+      <c r="C11" s="7">
         <v>43902</v>
       </c>
-      <c r="C11" s="9">
+      <c r="D11" s="7">
         <v>43904</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9">
+      <c r="C12" s="7">
         <v>43902</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D12" s="7">
         <v>43908</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9">
+      <c r="C13" s="7">
         <v>43902</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D13" s="7">
         <v>43911</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9">
+      <c r="C14" s="7">
         <v>43903</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D14" s="7">
         <v>43906</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
+      <c r="C15" s="7">
         <v>43903</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D15" s="7">
         <v>43909</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9">
+      <c r="C16" s="7">
         <v>43903</v>
       </c>
-      <c r="C16" s="9">
+      <c r="D16" s="7">
         <v>43913</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9">
+      <c r="C17" s="7">
         <v>43896</v>
       </c>
-      <c r="C17" s="9">
+      <c r="D17" s="7">
         <v>43907</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="9">
+      <c r="C18" s="7">
         <v>43896</v>
       </c>
-      <c r="C18" s="9">
+      <c r="D18" s="7">
         <v>43907</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="9">
+      <c r="C19" s="7">
         <v>43896</v>
       </c>
-      <c r="C19" s="9">
+      <c r="D19" s="7">
         <v>43910</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9">
+      <c r="C20" s="7">
         <v>43910</v>
       </c>
-      <c r="C20" s="9">
+      <c r="D20" s="7">
         <v>43906</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="9">
+      <c r="C21" s="7">
         <v>43910</v>
       </c>
-      <c r="C21" s="9">
+      <c r="D21" s="7">
         <v>43906</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9">
+      <c r="C22" s="7">
         <v>43910</v>
       </c>
-      <c r="C22" s="9">
+      <c r="D22" s="7">
         <v>43909</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9">
+      <c r="C23" s="7">
         <v>43903</v>
       </c>
-      <c r="C23" s="9">
+      <c r="D23" s="7">
         <v>43904</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="9">
+      <c r="C24" s="7">
         <v>43903</v>
       </c>
-      <c r="C24" s="9">
+      <c r="D24" s="7">
         <v>43905</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="9">
+      <c r="C25" s="7">
         <v>43903</v>
       </c>
-      <c r="C25" s="9">
+      <c r="D25" s="7">
         <v>43910</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="9">
+      <c r="C26" s="7">
         <v>43895</v>
       </c>
-      <c r="C26" s="9">
+      <c r="D26" s="7">
         <v>43907</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="9">
+      <c r="C27" s="7">
         <v>43895</v>
       </c>
-      <c r="C27" s="9">
+      <c r="D27" s="7">
         <v>43906</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="9">
+      <c r="C28" s="7">
         <v>43895</v>
       </c>
-      <c r="C28" s="9">
+      <c r="D28" s="7">
         <v>43923</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="9">
+      <c r="C29" s="7">
         <v>43902</v>
       </c>
-      <c r="C29" s="9">
+      <c r="D29" s="7">
         <v>43906</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="9">
+      <c r="C30" s="7">
         <v>43902</v>
       </c>
-      <c r="C30" s="9">
+      <c r="D30" s="7">
         <v>43909</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="9">
+      <c r="C31" s="7">
         <v>43902</v>
       </c>
-      <c r="C31" s="9">
+      <c r="D31" s="7">
         <v>43910</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="9">
+      <c r="C32" s="7">
         <v>43902</v>
       </c>
-      <c r="C32" s="9">
+      <c r="D32" s="7">
         <v>43941</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="11"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="11"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="11"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="11"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="11"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="11"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="11"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="11"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="11"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/RespostasPoliticasBrasil.xlsx
+++ b/RespostasPoliticasBrasil.xlsx
@@ -75,9 +75,6 @@
     <t>Publicação do Decreto</t>
   </si>
   <si>
-    <t>Estados</t>
-  </si>
-  <si>
     <t>Medidas</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -446,10 +446,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>16</v>
@@ -458,14 +458,14 @@
         <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>14</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>14</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>11</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>11</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>12</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>12</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>12</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>

--- a/RespostasPoliticasBrasil.xlsx
+++ b/RespostasPoliticasBrasil.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Página1!$A$1:$E$32</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t>Suspensão de eventos</t>
   </si>
@@ -28,12 +31,6 @@
   </si>
   <si>
     <t>Calamidade pública</t>
-  </si>
-  <si>
-    <t>Calamidade publica</t>
-  </si>
-  <si>
-    <t>Suspensão dos eventos</t>
   </si>
   <si>
     <t>Volta do comércio</t>
@@ -431,7 +428,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -446,29 +443,29 @@
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7">
         <v>43887</v>
@@ -483,10 +480,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7">
         <v>43887</v>
@@ -501,10 +498,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7">
         <v>43887</v>
@@ -519,10 +516,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7">
         <v>43895</v>
@@ -537,10 +534,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8">
         <v>43895</v>
@@ -555,10 +552,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7">
         <v>43895</v>
@@ -573,10 +570,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8">
         <v>43905</v>
@@ -591,10 +588,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>43905</v>
@@ -609,10 +606,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="8">
         <v>43905</v>
@@ -627,10 +624,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7">
         <v>43902</v>
@@ -645,10 +642,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7">
         <v>43902</v>
@@ -663,10 +660,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7">
         <v>43902</v>
@@ -681,10 +678,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7">
         <v>43903</v>
@@ -699,10 +696,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7">
         <v>43903</v>
@@ -717,10 +714,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7">
         <v>43903</v>
@@ -735,10 +732,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="7">
         <v>43896</v>
@@ -753,10 +750,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
         <v>43896</v>
@@ -771,10 +768,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="7">
         <v>43896</v>
@@ -789,10 +786,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>43910</v>
@@ -807,10 +804,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="7">
         <v>43910</v>
@@ -825,10 +822,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="7">
         <v>43910</v>
@@ -837,16 +834,16 @@
         <v>43909</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="7">
         <v>43903</v>
@@ -861,10 +858,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="7">
         <v>43903</v>
@@ -879,10 +876,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="7">
         <v>43903</v>
@@ -891,16 +888,16 @@
         <v>43910</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="7">
         <v>43895</v>
@@ -909,16 +906,16 @@
         <v>43907</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="7">
         <v>43895</v>
@@ -933,10 +930,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="7">
         <v>43895</v>
@@ -951,10 +948,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29" s="7">
         <v>43902</v>
@@ -969,10 +966,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30" s="7">
         <v>43902</v>
@@ -987,10 +984,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7">
         <v>43902</v>
@@ -1005,10 +1002,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="7">
         <v>43902</v>
@@ -1017,7 +1014,7 @@
         <v>43941</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F32" s="3"/>
     </row>
